--- a/mbs-perturbation/bottleneck/multinomialNB/nearmiss/bottleneck-multinomialNB-nearmiss-results.xlsx
+++ b/mbs-perturbation/bottleneck/multinomialNB/nearmiss/bottleneck-multinomialNB-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.625</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5599415204678362</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5256410256410255</v>
+        <v>0.2321589882565492</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5599415204678362</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.75</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6140350877192983</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5849358974358974</v>
+        <v>0.5255813953488372</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6140350877192982</v>
+        <v>0.5588235294117647</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7616959064327485</v>
+        <v>0.7941176470588236</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7501875468867217</v>
+        <v>0.7895667550839964</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7616959064327485</v>
+        <v>0.7941176470588235</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6073469387755102</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.4411764705882353</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6942084942084943</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6944444444444443</v>
+        <v>0.5588235294117647</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7995098039215687</v>
+        <v>0.4531468531468532</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6576023391812866</v>
+        <v>0.5235294117647058</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6324639805895298</v>
+        <v>0.4721351928961138</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6576023391812865</v>
+        <v>0.5235294117647058</v>
       </c>
     </row>
   </sheetData>
